--- a/Class_I/Result_Final.xlsx
+++ b/Class_I/Result_Final.xlsx
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="DY5">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:129">
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="DY12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:129">
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="DY18">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:129">
@@ -10202,7 +10202,7 @@
         <v>3.44</v>
       </c>
       <c r="DY24">
-        <v>26.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:129">
@@ -10591,7 +10591,7 @@
         <v>3.44</v>
       </c>
       <c r="DY25">
-        <v>26.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:129">
